--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303475.5431129429</v>
+        <v>319233.1861841196</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3013503.893776015</v>
+        <v>2995243.613506387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20373567.14494818</v>
+        <v>20355670.24425596</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4790382.659738131</v>
+        <v>4813416.780476122</v>
       </c>
     </row>
     <row r="11">
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1330,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="12">
@@ -1458,13 +1458,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="15">
@@ -1695,16 +1695,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1804,19 +1804,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>19.84491174912431</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>24.30129424928645</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>27.59002526031614</v>
+        <v>2.361305680129117</v>
       </c>
       <c r="H17" t="n">
         <v>27.59002526031614</v>
@@ -1865,7 +1865,7 @@
         <v>27.59002526031614</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,10 +1886,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>27.59002526031614</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>27.59002526031614</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>22.44875936050941</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,11 +2084,11 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>176.0539074908585</v>
       </c>
     </row>
     <row r="22">
@@ -2321,19 +2321,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>155.6728463193873</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2445,16 +2445,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,52 +2482,52 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>114.9581870864144</v>
       </c>
       <c r="E26" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -2615,10 +2615,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,10 +2634,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>163.5442732109545</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>80.38776757101658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,70 +2710,70 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2852,10 +2852,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>212.2853856434421</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>167.7790445900539</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3050,7 +3050,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>148.1333149454528</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>115.7580399383184</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,19 +3266,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3308,22 +3308,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>36.23314410029958</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>54.74971791311236</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>124.0022109398195</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>179.7283339446664</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3582,28 +3582,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>50.05769526855308</v>
+        <v>35.2582809162642</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="E41" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3785,13 +3785,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>182.3975862107083</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>28.12427423846114</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5.995720847973223</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,19 +3867,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>187.9840913941556</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>213.4242636173429</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3940,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>99.73223474306219</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.85315272828358</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>47.97407071350496</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>22.09498869872634</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="C17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="D17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="E17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="F17" t="n">
-        <v>85.81333917329844</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="G17" t="n">
-        <v>57.94462678914073</v>
+        <v>70.01461603622408</v>
       </c>
       <c r="H17" t="n">
-        <v>30.07591440498301</v>
+        <v>42.14590365206637</v>
       </c>
       <c r="I17" t="n">
-        <v>2.207202020825291</v>
+        <v>14.27719126790864</v>
       </c>
       <c r="J17" t="n">
         <v>2.207202020825291</v>
@@ -5534,31 +5534,31 @@
         <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>110.3601010412646</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="T17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="V17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="W17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="X17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="Y17" t="n">
-        <v>110.3601010412646</v>
+        <v>72.39977328887976</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5595,22 @@
         <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
+        <v>2.207202020825291</v>
+      </c>
+      <c r="L18" t="n">
         <v>29.52132702853827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
         <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>55.73185102583861</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O18" t="n">
         <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>110.3601010412646</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3601010412646</v>
@@ -5698,16 +5698,16 @@
         <v>52.75142891054807</v>
       </c>
       <c r="S19" t="n">
-        <v>52.75142891054807</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="T19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="U19" t="n">
-        <v>52.75142891054807</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V19" t="n">
-        <v>24.88271652639035</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W19" t="n">
         <v>2.207202020825291</v>
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5841,13 +5841,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V21" t="n">
-        <v>23.90796037760316</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X21" t="n">
-        <v>19.28114311021272</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>511.6380517254448</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>627.7355178317791</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>384.2867411876791</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>176.5264424227252</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6175,22 +6175,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.0940480307835</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C26" t="n">
-        <v>114.6452713866835</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D26" t="n">
-        <v>114.6452713866835</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T26" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U26" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V26" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W26" t="n">
-        <v>601.5428246748836</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X26" t="n">
-        <v>358.0940480307835</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.0940480307835</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>613.4725238202047</v>
+        <v>694.6722890434539</v>
       </c>
       <c r="C27" t="n">
-        <v>613.4725238202047</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="D27" t="n">
-        <v>464.5381141589534</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E27" t="n">
-        <v>305.3006591534979</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F27" t="n">
-        <v>158.7661011803829</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6309,19 +6309,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6348,7 +6348,7 @@
         <v>862.8876260635219</v>
       </c>
       <c r="Y27" t="n">
-        <v>781.6878608402728</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="28">
@@ -6421,13 +6421,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="30">
@@ -6516,7 +6516,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
         <v>19.28114311021272</v>
@@ -6549,16 +6549,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X30" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6646,10 +6646,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
         <v>19.28114311021272</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>246.8712036910471</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>29.30150906172561</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>113.210609091369</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>293.2864606760276</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>851.4843753638859</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>193.7341723913397</v>
+        <v>166.8611308706552</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="N33" t="n">
-        <v>621.8469951458151</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O33" t="n">
-        <v>860.4511411346975</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>847.1298424416277</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T33" t="n">
-        <v>644.9432478003937</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="U33" t="n">
-        <v>644.9432478003937</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="V33" t="n">
-        <v>644.9432478003937</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="W33" t="n">
-        <v>401.4944711562937</v>
+        <v>542.8367666556771</v>
       </c>
       <c r="X33" t="n">
-        <v>401.4944711562937</v>
+        <v>542.8367666556771</v>
       </c>
       <c r="Y33" t="n">
-        <v>193.7341723913397</v>
+        <v>335.0764678907232</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>752.9257720901863</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>749.627473042513</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>749.627473042513</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>700.1014279485831</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>488.9700445281333</v>
       </c>
       <c r="T35" t="n">
-        <v>752.9257720901863</v>
+        <v>271.4003498988118</v>
       </c>
       <c r="U35" t="n">
-        <v>752.9257720901863</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="V35" t="n">
-        <v>752.9257720901863</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W35" t="n">
-        <v>752.9257720901863</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X35" t="n">
-        <v>752.9257720901863</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y35" t="n">
-        <v>752.9257720901863</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>249.0369177581199</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="C36" t="n">
-        <v>74.58388847699288</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="D36" t="n">
-        <v>74.58388847699288</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="E36" t="n">
-        <v>74.58388847699288</v>
+        <v>302.4969032051418</v>
       </c>
       <c r="F36" t="n">
-        <v>74.58388847699288</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="G36" t="n">
-        <v>74.58388847699288</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>586.9891167356675</v>
       </c>
       <c r="T36" t="n">
-        <v>660.701031422288</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="U36" t="n">
-        <v>660.701031422288</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="V36" t="n">
-        <v>660.701031422288</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="W36" t="n">
-        <v>417.2522547781879</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="X36" t="n">
-        <v>417.2522547781879</v>
+        <v>461.7343582105973</v>
       </c>
       <c r="Y36" t="n">
-        <v>417.2522547781879</v>
+        <v>461.7343582105973</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>633.9146807345644</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>69.84447166430675</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>724.792036117055</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>575.8576264558037</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>416.6201714503482</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>270.0856134772332</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>131.3547880598487</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.98565246742797</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="Y39" t="n">
-        <v>69.84447166430675</v>
+        <v>760.4064612849986</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="41">
@@ -7391,7 +7391,7 @@
         <v>232.6540053493298</v>
       </c>
       <c r="D41" t="n">
-        <v>232.6540053493298</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
         <v>17.07394108938743</v>
@@ -7418,13 +7418,13 @@
         <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>408.9875268274333</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>614.8420490346726</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
-        <v>764.0369991773207</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P41" t="n">
         <v>853.6970544693717</v>
@@ -7433,25 +7433,25 @@
         <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>843.6054391011446</v>
+        <v>692.2224916858419</v>
       </c>
       <c r="S41" t="n">
-        <v>632.4740556806947</v>
+        <v>692.2224916858419</v>
       </c>
       <c r="T41" t="n">
-        <v>448.2340696092722</v>
+        <v>692.2224916858419</v>
       </c>
       <c r="U41" t="n">
-        <v>448.2340696092722</v>
+        <v>692.2224916858419</v>
       </c>
       <c r="V41" t="n">
-        <v>232.6540053493298</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="W41" t="n">
-        <v>232.6540053493298</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="X41" t="n">
-        <v>232.6540053493298</v>
+        <v>261.0623631659572</v>
       </c>
       <c r="Y41" t="n">
         <v>232.6540053493298</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.07394108938743</v>
+        <v>512.0643728999726</v>
       </c>
       <c r="C42" t="n">
-        <v>17.07394108938743</v>
+        <v>512.0643728999726</v>
       </c>
       <c r="D42" t="n">
-        <v>17.07394108938743</v>
+        <v>512.0643728999726</v>
       </c>
       <c r="E42" t="n">
-        <v>17.07394108938743</v>
+        <v>506.0080892151511</v>
       </c>
       <c r="F42" t="n">
-        <v>17.07394108938743</v>
+        <v>359.4735312420361</v>
       </c>
       <c r="G42" t="n">
-        <v>17.07394108938743</v>
+        <v>220.7427058246516</v>
       </c>
       <c r="H42" t="n">
-        <v>17.07394108938743</v>
+        <v>107.3735702322309</v>
       </c>
       <c r="I42" t="n">
         <v>17.07394108938743</v>
@@ -7491,22 +7491,22 @@
         <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>17.07394108938743</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L42" t="n">
-        <v>228.3639620705569</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M42" t="n">
-        <v>439.6539830517264</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N42" t="n">
-        <v>650.9440040328959</v>
+        <v>573.0124749748728</v>
       </c>
       <c r="O42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P42" t="n">
-        <v>853.6970544693717</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
         <v>853.6970544693717</v>
@@ -7515,25 +7515,25 @@
         <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>853.6970544693717</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="T42" t="n">
-        <v>663.8141338692145</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="U42" t="n">
-        <v>448.2340696092722</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="V42" t="n">
-        <v>232.6540053493298</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="W42" t="n">
-        <v>17.07394108938743</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="X42" t="n">
-        <v>17.07394108938743</v>
+        <v>680.2797099200405</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.07394108938743</v>
+        <v>680.2797099200405</v>
       </c>
     </row>
     <row r="43">
@@ -7543,10 +7543,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D43" t="n">
         <v>17.07394108938743</v>
@@ -7588,31 +7588,31 @@
         <v>151.6062315796582</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T43" t="n">
-        <v>64.57386465875476</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="V43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="W43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.57386465875476</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="44">
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N8" t="n">
         <v>229.4130635965909</v>
@@ -8468,7 +8468,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>167.7543251166491</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8696,16 +8696,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8778,16 +8778,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8851,16 +8851,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P13" t="n">
         <v>135.0065633140411</v>
@@ -8933,16 +8933,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9015,16 +9015,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>155.926839997373</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
         <v>135.0065633140411</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4314642346751</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>165.029656544824</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>168.6093106869682</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O18" t="n">
-        <v>170.1862697047606</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>161.5644326746464</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9404,7 +9404,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9489,7 +9489,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,19 +9723,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>371.3463732493024</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9875,7 +9875,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9957,22 +9957,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,10 +10112,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10197,7 +10197,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>317.0384260719773</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10431,19 +10431,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>253.1070822390753</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
-        <v>238.6269471880057</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10586,22 +10586,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>373.6931947635578</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>253.5692927615014</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,19 +10902,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>298.8430447887824</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>340.2681809469343</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>367.8635777812772</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>351.9786433972171</v>
@@ -11148,16 +11148,16 @@
         <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>344.7659757006762</v>
+        <v>139.4234614422313</v>
       </c>
       <c r="O42" t="n">
-        <v>347.3973054913896</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -23066,16 +23066,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>127.3027654569188</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>183.3997783916145</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23218,19 +23218,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>305.1859059859041</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="12">
@@ -23346,13 +23346,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>119.4489211987531</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>89.66909175226563</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23382,7 +23382,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>74.5375429580123</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23455,19 +23455,19 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>305.1859059859041</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="15">
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>86.61515304186563</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23692,19 +23692,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S16" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>208.1006776791572</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>382.574751492425</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>387.7127122548189</v>
+        <v>412.9414318350059</v>
       </c>
       <c r="H17" t="n">
         <v>311.884776855451</v>
@@ -23753,7 +23753,7 @@
         <v>182.8858643100898</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,10 +23774,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23938,19 +23938,19 @@
         <v>149.7033661168533</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>196.4265727766561</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>205.4968300677721</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>224.5476180635119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>264.0742389760816</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,10 +23972,10 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24023,19 +24023,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>287.2759793369997</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24069,7 +24069,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,22 +24099,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>29.62878828644583</v>
       </c>
     </row>
     <row r="22">
@@ -24209,19 +24209,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24266,10 +24266,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>10.86033733048004</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24333,16 +24333,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24351,7 +24351,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24415,7 +24415,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>239.7248545342686</v>
       </c>
       <c r="E26" t="n">
-        <v>287.5198830785557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24461,7 +24461,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -24503,10 +24503,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,10 +24522,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>9.164225777361196</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24534,13 +24534,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24588,7 +24588,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.2949282062878</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24698,7 +24698,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24740,10 +24740,10 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>136.9555830739709</v>
+        <v>116.4078829812627</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>142.81920059726</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24807,7 +24807,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>141.8841621389553</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24822,10 +24822,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24886,13 +24886,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,19 +24914,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>149.8788940879793</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>186.9039970306291</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24938,7 +24938,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,7 +24971,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>24.57518404286296</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25041,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>55.9251311655194</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25056,7 +25056,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25126,7 +25126,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25141,7 +25141,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,19 +25154,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25196,22 +25196,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>215.1125088075369</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>57.48572632338411</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25281,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>76.16251775500211</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,7 +25293,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,25 +25388,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>202.2020361275954</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25470,28 +25470,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>122.6508037197626</v>
+        <v>137.4502180720515</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25527,16 +25527,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25631,10 +25631,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>141.25877800334</v>
       </c>
       <c r="E41" t="n">
-        <v>168.5061064549189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25673,13 +25673,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>40.69826335342304</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>358.1136644175924</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25713,19 +25713,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>151.6493596074277</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25755,19 +25755,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>12.18063730066604</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>12.5171184636319</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>19.37632353208235</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>38.27071954357669</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25789,7 +25789,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>101.5905486845387</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25828,7 +25828,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25840,7 +25840,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762544</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>327897.5868709115</v>
+        <v>350064.5328762545</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>351700.8745024339</v>
+        <v>351700.874502434</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>507028.2310008515</v>
+        <v>507028.2310008513</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008515</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>507028.2310008513</v>
+        <v>507028.2310008511</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306334</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>507028.2310008513</v>
+        <v>488505.1665306333</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>507028.2310008515</v>
+        <v>488505.1665306334</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>487081.080020035</v>
+        <v>487081.0800200352</v>
       </c>
     </row>
     <row r="16">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="C2" t="n">
-        <v>69879.81359544014</v>
+        <v>69879.81359544017</v>
       </c>
       <c r="D2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="E2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="F2" t="n">
-        <v>69879.81359544017</v>
+        <v>74597.63547237263</v>
       </c>
       <c r="G2" t="n">
         <v>74945.90033124234</v>
@@ -26341,19 +26341,19 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="M2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.147631765</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>104062.1476317649</v>
       </c>
       <c r="O2" t="n">
-        <v>103759.0573236673</v>
+        <v>103759.0573236672</v>
       </c>
       <c r="P2" t="n">
-        <v>69879.81359544017</v>
+        <v>69879.81359544015</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7562.01207347375</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
         <v>57583.78714233168</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="C4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
       <c r="D4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248714</v>
       </c>
       <c r="E4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248713</v>
       </c>
       <c r="F4" t="n">
-        <v>23035.7779262594</v>
+        <v>23004.80940248713</v>
       </c>
       <c r="G4" t="n">
-        <v>24763.57099960299</v>
+        <v>23115.78358306613</v>
       </c>
       <c r="H4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="I4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>36038.21233542147</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="M4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770881</v>
       </c>
       <c r="N4" t="n">
-        <v>36038.21233542147</v>
+        <v>32393.64094770882</v>
       </c>
       <c r="O4" t="n">
-        <v>34590.32203425347</v>
+        <v>32297.06158368185</v>
       </c>
       <c r="P4" t="n">
-        <v>23035.7779262594</v>
+        <v>21501.48110628928</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
         <v>1677.473535827221</v>
@@ -26497,13 +26497,13 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
         <v>12976.19522793445</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>13216.43566918074</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>13216.43566918077</v>
+        <v>8449.081311463771</v>
       </c>
       <c r="E6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525194</v>
       </c>
       <c r="F6" t="n">
-        <v>46844.03566918077</v>
+        <v>50035.11236525194</v>
       </c>
       <c r="G6" t="n">
-        <v>40942.84372233837</v>
+        <v>49612.76865095564</v>
       </c>
       <c r="H6" t="n">
-        <v>-271.2310961488256</v>
+        <v>2117.134455014966</v>
       </c>
       <c r="I6" t="n">
-        <v>57312.55604618289</v>
+        <v>59700.92159734663</v>
       </c>
       <c r="J6" t="n">
-        <v>57312.55604618289</v>
+        <v>59700.92159734666</v>
       </c>
       <c r="K6" t="n">
-        <v>57312.5560461829</v>
+        <v>59700.92159734666</v>
       </c>
       <c r="L6" t="n">
-        <v>57312.55604618289</v>
+        <v>58572.551624928</v>
       </c>
       <c r="M6" t="n">
-        <v>57312.55604618289</v>
+        <v>58572.55162492803</v>
       </c>
       <c r="N6" t="n">
-        <v>57312.55604618287</v>
+        <v>58572.55162492799</v>
       </c>
       <c r="O6" t="n">
-        <v>56192.54006147935</v>
+        <v>58485.80051205096</v>
       </c>
       <c r="P6" t="n">
-        <v>46844.03566918077</v>
+        <v>48378.33248915087</v>
       </c>
     </row>
   </sheetData>
@@ -26793,13 +26793,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
         <v>27.59002526031614</v>
@@ -26817,13 +26817,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
         <v>213.4242636173429</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
         <v>213.4242636173429</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.59002526031614</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
         <v>213.4242636173429</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35188,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35334,16 +35334,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35416,16 +35416,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35498,16 +35498,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35571,16 +35571,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35735,16 +35735,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35808,16 +35808,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>27.59002526031614</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>26.47527676494984</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>27.59002526031614</v>
-      </c>
-      <c r="P18" t="n">
-        <v>27.59002526031614</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
         <v>150.7019698410586</v>
@@ -36209,7 +36209,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>240.0046611659691</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
@@ -36677,22 +36677,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>96.94857502699675</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37084,7 +37084,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37151,19 +37151,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>110.973048317057</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
-        <v>104.6525397736754</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37312,16 +37312,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
-        <v>150.7019698410586</v>
+        <v>143.5949833418711</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>110.973048317057</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37543,13 +37543,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>167.5013327054491</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>109.9219477196616</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>137.7653663595904</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>213.4242636173429</v>
@@ -37868,16 +37868,16 @@
         <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
+        <v>8.081749358897964</v>
+      </c>
+      <c r="O42" t="n">
         <v>213.4242636173429</v>
       </c>
-      <c r="O42" t="n">
-        <v>204.8010610469452</v>
-      </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
